--- a/artfynd/A 46978-2020.xlsx
+++ b/artfynd/A 46978-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY142"/>
+  <dimension ref="A1:AY143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16813,6 +16813,124 @@
       </c>
       <c r="AY142" t="inlineStr"/>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>112185205</v>
+      </c>
+      <c r="B143" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>Bergtäkten (Ottsjö, Undersåker), Jmt</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>406359.459750428</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7012054.380907402</v>
+      </c>
+      <c r="S143" t="n">
+        <v>10</v>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>Undersåker</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="AD143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT143" t="inlineStr"/>
+      <c r="AW143" t="inlineStr">
+        <is>
+          <t>Matilda Pettersson</t>
+        </is>
+      </c>
+      <c r="AX143" t="inlineStr">
+        <is>
+          <t>Matilda Pettersson</t>
+        </is>
+      </c>
+      <c r="AY143" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 46978-2020.xlsx
+++ b/artfynd/A 46978-2020.xlsx
@@ -16861,10 +16861,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>406359.459750428</v>
+        <v>406359</v>
       </c>
       <c r="R143" t="n">
-        <v>7012054.380907402</v>
+        <v>7012054</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
